--- a/DSU_FOP_Data/FOP Course Design_teachers/timediff.xlsx
+++ b/DSU_FOP_Data/FOP Course Design_teachers/timediff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Kavya Alse</t>
   </si>
@@ -22,21 +22,12 @@
     <t>Programming Environment.</t>
   </si>
   <si>
-    <t>3 days, 1:29:30</t>
+    <t>0:09:30</t>
   </si>
   <si>
     <t>0:03:02</t>
   </si>
   <si>
-    <t>1 day, 16:13:04</t>
-  </si>
-  <si>
-    <t>20 days, 9:57:49</t>
-  </si>
-  <si>
-    <t>4 days, 1:23:54</t>
-  </si>
-  <si>
     <t>0:03:01</t>
   </si>
   <si>
@@ -46,13 +37,10 @@
     <t>0:00:21</t>
   </si>
   <si>
-    <t>9 days, 12:31:22</t>
-  </si>
-  <si>
     <t>Arjun CSE</t>
   </si>
   <si>
-    <t>0:38:19</t>
+    <t>0:00:00</t>
   </si>
 </sst>
 </file>
@@ -384,13 +372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,39 +392,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
